--- a/testData/Data.xlsx
+++ b/testData/Data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2327132\eclipse-workspace\Identify_courses\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C9CDDB-BDC0-4E68-9044-8E38EE5BDD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E5446A-AB13-4C38-AA16-5C1F8DB3E21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" activeTab="1" xr2:uid="{4B665AFC-4DEA-445C-A2A6-58F29769B7EC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{4B665AFC-4DEA-445C-A2A6-58F29769B7EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="expectedData" sheetId="1" r:id="rId1"/>
+    <sheet name="FormData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Build Essential Language Skills</t>
   </si>
@@ -61,14 +61,28 @@
   </si>
   <si>
     <t>Courses for myself</t>
+  </si>
+  <si>
+    <t>Form Details</t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,7 +430,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -435,7 +450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27FBCD54-03BD-4B27-8BAF-C092B89BDDEA}">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
@@ -447,42 +462,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>1</v>
+      <c r="A1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5">
         <v>9390050189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
